--- a/Data/g16.4.xlsx
+++ b/Data/g16.4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,16 +437,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C6">
-        <v>3.520668787028191</v>
+        <v>4.695974113412442</v>
       </c>
     </row>
     <row r="7">
@@ -457,11 +457,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="C7">
-        <v>3.713599951282547</v>
+        <v>3.520668787028191</v>
       </c>
     </row>
     <row r="8">
@@ -472,11 +472,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="C8">
-        <v>3.897511354595247</v>
+        <v>3.713599951282547</v>
       </c>
     </row>
     <row r="9">
@@ -487,41 +487,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="C9">
-        <v>3.618295609666261</v>
+        <v>3.897511354595247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C10">
-        <v>4.822422822579376</v>
+        <v>3.618295609666261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C11">
-        <v>5.520020941397937</v>
+        <v>3.483844743493894</v>
       </c>
     </row>
     <row r="12">
@@ -532,11 +532,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="C12">
-        <v>5.443832101077787</v>
+        <v>4.822422822579376</v>
       </c>
     </row>
     <row r="13">
@@ -547,11 +547,56 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>5.520020941397937</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>5.443832101077787</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>5.129675668138598</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>4.664592479082242</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g16.4.xlsx
+++ b/Data/g16.4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,16 +452,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C7">
-        <v>3.520668787028191</v>
+        <v>5.11059528529159</v>
       </c>
     </row>
     <row r="8">
@@ -472,11 +472,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="C8">
-        <v>3.713599951282547</v>
+        <v>3.520668787028191</v>
       </c>
     </row>
     <row r="9">
@@ -487,11 +487,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="C9">
-        <v>3.897511354595247</v>
+        <v>3.713599951282547</v>
       </c>
     </row>
     <row r="10">
@@ -502,11 +502,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="C10">
-        <v>3.618295609666261</v>
+        <v>3.897511354595247</v>
       </c>
     </row>
     <row r="11">
@@ -517,41 +517,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="C11">
-        <v>3.483844743493894</v>
+        <v>3.618295609666261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="C12">
-        <v>4.822422822579376</v>
+        <v>3.483844743493894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="C13">
-        <v>5.520020941397937</v>
+        <v>3.68496416112219</v>
       </c>
     </row>
     <row r="14">
@@ -562,11 +562,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="C14">
-        <v>5.443832101077787</v>
+        <v>4.822422822579376</v>
       </c>
     </row>
     <row r="15">
@@ -577,11 +577,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="C15">
-        <v>5.129675668138598</v>
+        <v>5.520020941397937</v>
       </c>
     </row>
     <row r="16">
@@ -592,11 +592,56 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>5.443832101077787</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>5.129675668138598</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>4.664592479082242</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>4.91480088324656</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g16.4.xlsx
+++ b/Data/g16.4.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -385,8 +461,8 @@
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="C2">
-        <v>4.667058984834714</v>
+      <c r="C2" t="n">
+        <v>28.36761694044395</v>
       </c>
     </row>
     <row r="3">
@@ -400,8 +476,8 @@
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="C3">
-        <v>4.901081349408973</v>
+      <c r="C3" t="n">
+        <v>29.25415843544748</v>
       </c>
     </row>
     <row r="4">
@@ -415,8 +491,8 @@
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="C4">
-        <v>4.844245820982904</v>
+      <c r="C4" t="n">
+        <v>27.87786813631802</v>
       </c>
     </row>
     <row r="5">
@@ -430,8 +506,8 @@
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="C5">
-        <v>4.677684782843192</v>
+      <c r="C5" t="n">
+        <v>26.34677798955121</v>
       </c>
     </row>
     <row r="6">
@@ -445,8 +521,8 @@
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="C6">
-        <v>4.695974113412442</v>
+      <c r="C6" t="n">
+        <v>23.25775831059988</v>
       </c>
     </row>
     <row r="7">
@@ -460,8 +536,8 @@
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="C7">
-        <v>5.11059528529159</v>
+      <c r="C7" t="n">
+        <v>23.94993976679592</v>
       </c>
     </row>
     <row r="8">
@@ -475,8 +551,8 @@
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="C8">
-        <v>3.520668787028191</v>
+      <c r="C8" t="n">
+        <v>26.65233817865667</v>
       </c>
     </row>
     <row r="9">
@@ -490,8 +566,8 @@
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="C9">
-        <v>3.713599951282547</v>
+      <c r="C9" t="n">
+        <v>27.94152136181719</v>
       </c>
     </row>
     <row r="10">
@@ -505,8 +581,8 @@
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="C10">
-        <v>3.897511354595247</v>
+      <c r="C10" t="n">
+        <v>27.59286688110439</v>
       </c>
     </row>
     <row r="11">
@@ -520,8 +596,8 @@
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="C11">
-        <v>3.618295609666261</v>
+      <c r="C11" t="n">
+        <v>25.6200737848756</v>
       </c>
     </row>
     <row r="12">
@@ -535,8 +611,8 @@
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="C12">
-        <v>3.483844743493894</v>
+      <c r="C12" t="n">
+        <v>21.5483443308833</v>
       </c>
     </row>
     <row r="13">
@@ -550,8 +626,8 @@
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="C13">
-        <v>3.68496416112219</v>
+      <c r="C13" t="n">
+        <v>21.7791502188879</v>
       </c>
     </row>
     <row r="14">
@@ -565,8 +641,8 @@
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="C14">
-        <v>4.822422822579376</v>
+      <c r="C14" t="n">
+        <v>30.60086049844358</v>
       </c>
     </row>
     <row r="15">
@@ -580,8 +656,8 @@
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="C15">
-        <v>5.520020941397937</v>
+      <c r="C15" t="n">
+        <v>33.36820235046488</v>
       </c>
     </row>
     <row r="16">
@@ -595,8 +671,8 @@
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="C16">
-        <v>5.443832101077787</v>
+      <c r="C16" t="n">
+        <v>35.18605193517779</v>
       </c>
     </row>
     <row r="17">
@@ -610,8 +686,8 @@
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="C17">
-        <v>5.129675668138598</v>
+      <c r="C17" t="n">
+        <v>28.17835780767601</v>
       </c>
     </row>
     <row r="18">
@@ -625,8 +701,8 @@
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="C18">
-        <v>4.664592479082242</v>
+      <c r="C18" t="n">
+        <v>21.66799966609153</v>
       </c>
     </row>
     <row r="19">
@@ -640,11 +716,11 @@
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="C19">
-        <v>4.91480088324656</v>
+      <c r="C19" t="n">
+        <v>24.42091505186078</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>